--- a/Graphs/Technical Orientation.xlsx
+++ b/Graphs/Technical Orientation.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25443ab6e74433de/Pessoal/Artigo/Economic History Review/Code/Graphs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="513" documentId="8_{1374ED49-AD5B-4AA0-A505-32D2593FD9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CF5EA02-1D8E-4E20-9D52-8CFF35923354}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="518" documentId="8_{1374ED49-AD5B-4AA0-A505-32D2593FD9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAC4599-82EB-4D4E-9440-D18265E8BDF2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2715205B-D405-46F8-AD07-11AD52CD60ED}"/>
   </bookViews>
@@ -304,10 +299,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,10 +621,10 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2233,16 +2224,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18A3952-D507-4CC9-A469-4A5B43A6E38E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2347,7 +2338,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2426,7 +2417,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -2949,19 +2940,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G9" xr:uid="{B18A3952-D507-4CC9-A469-4A5B43A6E38E}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="10 to 100"/>
-        <filter val="100 to 1000"/>
-        <filter val="1000 to 2500"/>
-        <filter val="2500 and more"/>
-        <filter val="2500 to 10000"/>
-        <filter val="Less than 10"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2970,7 +2950,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3580,5 +3560,6 @@
     <sortCondition ref="B3:B17"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>